--- a/src/Archivos/Horario_Carrera.xlsx
+++ b/src/Archivos/Horario_Carrera.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
   <si>
     <t>Codigo</t>
   </si>
@@ -36,28 +36,166 @@
     <t>Sala</t>
   </si>
   <si>
+    <t>ICQ030-1</t>
+  </si>
+  <si>
+    <t>FUND. DE QUIMIC</t>
+  </si>
+  <si>
+    <t>1|1,2</t>
+  </si>
+  <si>
+    <t>A.ARIAS</t>
+  </si>
+  <si>
+    <t>D-208</t>
+  </si>
+  <si>
+    <t>2|6,7</t>
+  </si>
+  <si>
+    <t>K.BOBADILLA</t>
+  </si>
+  <si>
+    <t>D-207</t>
+  </si>
+  <si>
+    <t>ICQ030-2</t>
+  </si>
+  <si>
+    <t>IC024-1</t>
+  </si>
+  <si>
+    <t>FUND. FIS</t>
+  </si>
+  <si>
+    <t>3|1,2</t>
+  </si>
+  <si>
+    <t>4|1,2</t>
+  </si>
+  <si>
+    <t>5|1,2</t>
+  </si>
+  <si>
+    <t>E.AQUEVEQUE</t>
+  </si>
+  <si>
+    <t>R-102</t>
+  </si>
+  <si>
+    <t>IC024-2</t>
+  </si>
+  <si>
+    <t>F.AREVALO</t>
+  </si>
+  <si>
+    <t>R-103</t>
+  </si>
+  <si>
+    <t>ICF190-4</t>
+  </si>
+  <si>
+    <t>FISICA II</t>
+  </si>
+  <si>
+    <t>RA-1003</t>
+  </si>
+  <si>
+    <t>1|3,4</t>
+  </si>
+  <si>
+    <t>2|3,4</t>
+  </si>
+  <si>
+    <t>F.TORRES</t>
+  </si>
+  <si>
+    <t>D-111</t>
+  </si>
+  <si>
+    <t>IME188-5</t>
+  </si>
+  <si>
+    <t>ECUA DIFERENCIA</t>
+  </si>
+  <si>
+    <t>2|102</t>
+  </si>
+  <si>
+    <t>4|7,8</t>
+  </si>
+  <si>
+    <t>A.MANSILLA</t>
+  </si>
+  <si>
+    <t>PROGRAMACION</t>
+  </si>
+  <si>
     <t>ICC264-1</t>
   </si>
   <si>
-    <t>Programacion</t>
+    <t>S.SEPULVEDA</t>
+  </si>
+  <si>
+    <t>LAB.COMP 101</t>
+  </si>
+  <si>
+    <t>DFI044-4</t>
+  </si>
+  <si>
+    <t>TRABAJO EN EQUI</t>
   </si>
   <si>
     <t>2|1,2</t>
   </si>
   <si>
-    <t>3|1,2</t>
-  </si>
-  <si>
-    <t>ICC264-2</t>
-  </si>
-  <si>
-    <t>Clases</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Lab comp 101</t>
+    <t>3|3,4</t>
+  </si>
+  <si>
+    <t>C.FIGUEROA</t>
+  </si>
+  <si>
+    <t>DIFEM 203</t>
+  </si>
+  <si>
+    <t>IME186-2</t>
+  </si>
+  <si>
+    <t>CAL MULTIVARIAB</t>
+  </si>
+  <si>
+    <t>2|7,8</t>
+  </si>
+  <si>
+    <t>3|7,8</t>
+  </si>
+  <si>
+    <t>5|3,4</t>
+  </si>
+  <si>
+    <t>F.CHOQUEHUANCA</t>
+  </si>
+  <si>
+    <t>RA-2003</t>
+  </si>
+  <si>
+    <t>ICC260-1</t>
+  </si>
+  <si>
+    <t>SISTEMAS OPERAT</t>
+  </si>
+  <si>
+    <t>1|9,10</t>
+  </si>
+  <si>
+    <t>2|9,10</t>
+  </si>
+  <si>
+    <t>LAB COMP 101</t>
+  </si>
+  <si>
+    <t>C.OPAZO</t>
   </si>
 </sst>
 </file>
@@ -375,24 +513,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.77734375" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" customWidth="1"/>
+    <col min="24" max="24" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,13 +536,73 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -425,8 +618,68 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -434,24 +687,84 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -459,16 +772,76 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -476,22 +849,65 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/src/Archivos/Horario_Carrera.xlsx
+++ b/src/Archivos/Horario_Carrera.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
   <si>
     <t>Codigo</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>C.OPAZO</t>
+  </si>
+  <si>
+    <t>ZZZZZZZZZ</t>
   </si>
 </sst>
 </file>
@@ -513,19 +516,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="21.21875" customWidth="1"/>
     <col min="23" max="23" width="8.88671875" customWidth="1"/>
     <col min="24" max="24" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,8 +613,11 @@
       <c r="Y1" t="s">
         <v>53</v>
       </c>
+      <c r="Z1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -678,8 +693,11 @@
       <c r="Y2" t="s">
         <v>54</v>
       </c>
+      <c r="Z2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -755,8 +773,11 @@
       <c r="Y3" t="s">
         <v>56</v>
       </c>
+      <c r="Z3" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -832,8 +853,11 @@
       <c r="Y4" t="s">
         <v>58</v>
       </c>
+      <c r="Z4" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -908,9 +932,13 @@
       </c>
       <c r="Y5" t="s">
         <v>57</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>